--- a/biology/Botanique/Cannelier/Cannelier.xlsx
+++ b/biology/Botanique/Cannelier/Cannelier.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cannelier est un nom vernaculaire ambigu en français, pouvant désigner plusieurs espèces différentes d'arbres ou arbustes du genre Cinnamomum, famille des Lauraceae. Le plus souvent toutefois, en disant « cannelier » les francophones font référence au Cannelier de Ceylan (Cinnamomum verum) qui donne la véritable cannelle, une épice issue de la transformation de son écorce, qui se présente sous forme de tubes enroulés.
 </t>
@@ -511,7 +523,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Étymologiquement « cannelier » est formé sur cannelle (en latin canna). Le nom latin cinnamomum, ou cinnamum, est celui qu'utilisait Pline pour désigner la cannelle (mot emprunté au grec ancien kinnamomon).
 </t>
@@ -542,7 +556,9 @@
           <t>Physiologie, comportement et écologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les caractéristiques générales des canneliers sont celles des plantes du genre Cinnamomum, qui comprend également d'autres arbres comme le camphrier. Voir les articles détaillés de chaque espèce pour plus d'informations sur leur description et leurs propriétés respectives.
 </t>
@@ -573,16 +589,18 @@
           <t>Noms français et noms scientifiques correspondants</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Liste alphabétique de noms vulgaires ou de noms vernaculaires attestés[1] en français. 
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Liste alphabétique de noms vulgaires ou de noms vernaculaires attestés en français. 
 Note : certaines espèces ont plusieurs noms et figurent donc plusieurs fois dans cette liste. Les classifications évoluant encore, certains noms scientifiques ont peut-être un autre synonyme valide. 
-Cannelier sans autre précision, désigne l'arbre dont l'écorce fournit la véritable épice : le Cannelier de Ceylan (Cinnamomum verum)[2],[3]
-Cannelier de Ceylan - Cinnamomum verum[2],[3],[4],[5]
-Cannelier de Chine - Cinnamomum cassia[2]
-Cannelier du Japon - Cinnamomum japonicum[6]
-Cannelier de Malaisie - Cinnamomum burmannii[7]
-Cannelier de Saïgon - Cinnamomum loureiroi[8]</t>
+Cannelier sans autre précision, désigne l'arbre dont l'écorce fournit la véritable épice : le Cannelier de Ceylan (Cinnamomum verum),
+Cannelier de Ceylan - Cinnamomum verum
+Cannelier de Chine - Cinnamomum cassia
+Cannelier du Japon - Cinnamomum japonicum
+Cannelier de Malaisie - Cinnamomum burmannii
+Cannelier de Saïgon - Cinnamomum loureiroi</t>
         </is>
       </c>
     </row>
